--- a/Unterrichtsstunden/Stex/Anhang_Evaluation/Klassenstufe_9/Stunde_1_Evaluation.xlsx
+++ b/Unterrichtsstunden/Stex/Anhang_Evaluation/Klassenstufe_9/Stunde_1_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\Tira_School\Unterrichtsstunden\Stex\Anhang_Evaluation\Klassenstufe_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84FC1F-FF4D-4708-AF1E-1D1416E51209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110AE00C-972E-46CD-8DFD-5E43D6CB9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="418" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="1. Stunde_Klasse_9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -479,7 +478,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
